--- a/Tong hop svr  06-11-2013.xlsx
+++ b/Tong hop svr  06-11-2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19440" windowHeight="4035" tabRatio="587" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="19440" windowHeight="3975" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="VDC-TL" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11053" uniqueCount="4411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11052" uniqueCount="4411">
   <si>
     <t>222.255.27.129</t>
   </si>
@@ -17230,23 +17230,23 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -17773,28 +17773,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IP1262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="520" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="520" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
     <col min="8" max="8" width="21" style="301" customWidth="1"/>
     <col min="9" max="9" width="30.140625" style="301" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" style="301" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="13" style="155" customWidth="1"/>
-    <col min="13" max="13" width="45" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="17.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="98.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="49.28515625" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -17860,9 +17860,7 @@
       <c r="N2" s="537" t="s">
         <v>3186</v>
       </c>
-      <c r="O2" s="534" t="s">
-        <v>2484</v>
-      </c>
+      <c r="O2" s="534"/>
       <c r="IO2" s="428"/>
       <c r="IP2" s="428"/>
     </row>
@@ -63584,22 +63582,22 @@
       <c r="F3"/>
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="717" t="s">
+      <c r="A4" s="713" t="s">
         <v>719</v>
       </c>
-      <c r="B4" s="718" t="s">
+      <c r="B4" s="714" t="s">
         <v>720</v>
       </c>
-      <c r="C4" s="714" t="s">
+      <c r="C4" s="715" t="s">
         <v>721</v>
       </c>
-      <c r="D4" s="714" t="s">
+      <c r="D4" s="715" t="s">
         <v>507</v>
       </c>
-      <c r="E4" s="714" t="s">
+      <c r="E4" s="715" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="715" t="s">
+      <c r="F4" s="718" t="s">
         <v>724</v>
       </c>
       <c r="G4" s="716" t="s">
@@ -63611,25 +63609,25 @@
       <c r="I4" s="716" t="s">
         <v>727</v>
       </c>
-      <c r="J4" s="714" t="s">
+      <c r="J4" s="715" t="s">
         <v>509</v>
       </c>
-      <c r="K4" s="713" t="s">
+      <c r="K4" s="717" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="717"/>
-      <c r="B5" s="718"/>
-      <c r="C5" s="714"/>
-      <c r="D5" s="714"/>
-      <c r="E5" s="714"/>
-      <c r="F5" s="715"/>
+      <c r="A5" s="713"/>
+      <c r="B5" s="714"/>
+      <c r="C5" s="715"/>
+      <c r="D5" s="715"/>
+      <c r="E5" s="715"/>
+      <c r="F5" s="718"/>
       <c r="G5" s="716"/>
       <c r="H5" s="716"/>
       <c r="I5" s="716"/>
-      <c r="J5" s="714"/>
-      <c r="K5" s="713"/>
+      <c r="J5" s="715"/>
+      <c r="K5" s="717"/>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
@@ -63884,17 +63882,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I4:I5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -66979,7 +66977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
